--- a/report_template/careHouse.xlsx
+++ b/report_template/careHouse.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\gb\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\gb\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8754"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,51 +24,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>屬性</t>
-  </si>
-  <si>
-    <t>機構名稱</t>
-  </si>
-  <si>
-    <t>負責人</t>
-  </si>
-  <si>
-    <t>區域別</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>電話</t>
   </si>
   <si>
-    <t>廢棄物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>單位名稱</t>
   </si>
   <si>
-    <t>長照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安養</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>養護</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>插兩管床數</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>床數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,31 +58,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,42 +81,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,57 +404,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7890625" customWidth="1"/>
-    <col min="10" max="10" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>